--- a/Test/File/testbook.xlsx
+++ b/Test/File/testbook.xlsx
@@ -35,7 +35,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="5" formatCode="&quot;¥&quot;#,##0;&quot;¥&quot;\-#,##0"/>
+    <numFmt numFmtId="177" formatCode="[$¥-411]#,##0;\-[$¥-411]#,##0"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -89,7 +89,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="5" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -389,10 +389,13 @@
   <dimension ref="B3:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="3" max="3" width="10.375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="3" spans="2:3">
       <c r="B3" t="s">
